--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MICHIGAN_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MICHIGAN_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1013"/>
+  <dimension ref="A1:D1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C27">
@@ -797,7 +797,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C32">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C45">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C46">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C50">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C77">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C83">
@@ -1613,7 +1613,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C94">
@@ -1735,7 +1735,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C103">
@@ -1761,7 +1761,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C109">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C124">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C137">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C140">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C146">
@@ -2421,12 +2421,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C155">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C157">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C166">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C169">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C173">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C183">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C188">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C202">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C206">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C209">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C220">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C221">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C227">
@@ -3406,7 +3406,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C230">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C240">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C242">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C245">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C247">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C251">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3775,7 +3775,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C258">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C259">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C264">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C268">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C271">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C272">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C275">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C280">
@@ -4074,7 +4074,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C281">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C285">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C299">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C302">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C306">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C315">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C319">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C322">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C324">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C327">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C335">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C341">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C347">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C353">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C359">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C362">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C373">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C378">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C381">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C385">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C388">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C393">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C396">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C400">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C401">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C403">
@@ -5683,7 +5683,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C404">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C406">
@@ -5735,7 +5735,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C408">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C409">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C414">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C415">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C417">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C420">
@@ -5904,7 +5904,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C421">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C424">
@@ -6780,7 +6780,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C488">
@@ -7097,7 +7097,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C512">
@@ -7188,7 +7188,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C519">
@@ -7214,7 +7214,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C521">
@@ -7253,7 +7253,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C524">
@@ -7362,7 +7362,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C532">
@@ -7427,7 +7427,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C537">
@@ -7640,7 +7640,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C553">
@@ -7705,7 +7705,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C558">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C564">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C566">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C568">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C570">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C572">
@@ -7905,7 +7905,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C573">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C574">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C576">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C581">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C611">
@@ -8477,7 +8477,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C617">
@@ -8646,7 +8646,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C630">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C637">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C665">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C669">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C671">
@@ -9392,7 +9392,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C687">
@@ -9535,7 +9535,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C698">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C699">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C703">
@@ -9639,7 +9639,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C706">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C720">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C728">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C730">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C740">
@@ -10229,7 +10229,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C751">
@@ -10268,7 +10268,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C754">
@@ -10281,7 +10281,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C755">
@@ -10294,7 +10294,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C756">
@@ -10320,7 +10320,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10486,7 +10486,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C770">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C778">
@@ -10668,7 +10668,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C784">
@@ -10720,7 +10720,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C788">
@@ -10772,7 +10772,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C792">
@@ -10811,7 +10811,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C795">
@@ -10824,7 +10824,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C796">
@@ -10837,7 +10837,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C797">
@@ -10850,7 +10850,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C798">
@@ -10863,7 +10863,7 @@
     <row r="799">
       <c r="B799" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C799">
@@ -11107,7 +11107,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C817">
@@ -11655,7 +11655,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C858">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C870">
@@ -11855,7 +11855,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C873">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C879">
@@ -11985,7 +11985,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C883">
@@ -12063,7 +12063,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C889">
@@ -12193,7 +12193,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C899">
@@ -12206,7 +12206,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C900">
@@ -12232,7 +12232,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C902">
@@ -12245,7 +12245,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C903">
@@ -12323,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C909">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C912">
@@ -12375,7 +12375,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C913">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C914">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C926">
@@ -12557,7 +12557,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C927">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C929">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C935">
@@ -12674,7 +12674,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C936">
@@ -12739,7 +12739,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C941">
@@ -12986,7 +12986,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C960">
@@ -13121,7 +13121,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C970">
@@ -13134,7 +13134,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C971">
@@ -13355,7 +13355,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C988">
@@ -13368,7 +13368,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C989">
@@ -13381,7 +13381,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C990">
@@ -13498,7 +13498,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C999">
@@ -13524,7 +13524,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1001">
@@ -13610,41 +13610,6 @@
       </c>
       <c r="D1007">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
